--- a/assets/files/beneficiariosrfc.xlsx
+++ b/assets/files/beneficiariosrfc.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\Catalogos originales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julieta\Dropbox\INSEZAC Residencias\Archivos de proyecto\Catalogos originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="71">
   <si>
     <t>RFC</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Cobertura</t>
   </si>
   <si>
-    <t>IAHA950310MZSBRL08</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -110,7 +107,136 @@
     <t>Alejandro</t>
   </si>
   <si>
-    <t>RAVJ931103F34</t>
+    <t>RAVJ931103F35</t>
+  </si>
+  <si>
+    <t>RAVJ931103F36</t>
+  </si>
+  <si>
+    <t>RAVJ931103F37</t>
+  </si>
+  <si>
+    <t>RAVJ931103F38</t>
+  </si>
+  <si>
+    <t>RAVJ931103F39</t>
+  </si>
+  <si>
+    <t>RAVJ931103F40</t>
+  </si>
+  <si>
+    <t>RAVJ931103F41</t>
+  </si>
+  <si>
+    <t>RAVJ931103F42</t>
+  </si>
+  <si>
+    <t>RAVJ931103F43</t>
+  </si>
+  <si>
+    <t>RAVJ931103F44</t>
+  </si>
+  <si>
+    <t>RAVJ931103F45</t>
+  </si>
+  <si>
+    <t>RAVJ931103F46</t>
+  </si>
+  <si>
+    <t>RAVJ931103F47</t>
+  </si>
+  <si>
+    <t>RAVJ931103F48</t>
+  </si>
+  <si>
+    <t>RAVJ931103F49</t>
+  </si>
+  <si>
+    <t>RAVJ931103F50</t>
+  </si>
+  <si>
+    <t>RAVJ931103F51</t>
+  </si>
+  <si>
+    <t>RAVJ931103F52</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN08</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN09</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN10</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN11</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN12</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN13</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN14</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN15</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN16</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN17</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN18</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN19</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN20</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN21</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN22</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN23</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN24</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN25</t>
+  </si>
+  <si>
+    <t>SAGA940416MZSNRN26</t>
+  </si>
+  <si>
+    <t>Ibarra</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Julieta</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>RAVJ931103F53</t>
   </si>
 </sst>
 </file>
@@ -179,10 +305,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -469,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -547,438 +672,1012 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>201</v>
+      </c>
+      <c r="M2" s="2">
+        <v>203</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>201</v>
+      </c>
+      <c r="M3" s="2">
+        <v>203</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5">
-        <v>42806</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3">
-        <v>320010091</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3">
-        <v>201</v>
-      </c>
-      <c r="M2" s="3">
-        <v>203</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="F4" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>201</v>
+      </c>
+      <c r="M4" s="2">
+        <v>203</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2">
+        <v>201</v>
+      </c>
+      <c r="M5" s="2">
+        <v>203</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>201</v>
+      </c>
+      <c r="M6" s="2">
+        <v>203</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>201</v>
+      </c>
+      <c r="M7" s="2">
+        <v>203</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2">
+        <v>201</v>
+      </c>
+      <c r="M8" s="2">
+        <v>203</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2">
+        <v>201</v>
+      </c>
+      <c r="M9" s="2">
+        <v>203</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2">
+        <v>201</v>
+      </c>
+      <c r="M10" s="2">
+        <v>203</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2">
+        <v>201</v>
+      </c>
+      <c r="M11" s="2">
+        <v>203</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2">
+        <v>201</v>
+      </c>
+      <c r="M12" s="2">
+        <v>203</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2">
+        <v>201</v>
+      </c>
+      <c r="M13" s="2">
+        <v>203</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2">
+        <v>201</v>
+      </c>
+      <c r="M14" s="2">
+        <v>203</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="2">
+        <v>201</v>
+      </c>
+      <c r="M15" s="2">
+        <v>203</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2">
+        <v>201</v>
+      </c>
+      <c r="M16" s="2">
+        <v>203</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2">
+        <v>201</v>
+      </c>
+      <c r="M17" s="2">
+        <v>203</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2">
+        <v>201</v>
+      </c>
+      <c r="M18" s="2">
+        <v>203</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" s="2">
+        <v>203</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4">
+        <v>42806</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2">
+        <v>320010091</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="2">
+        <v>201</v>
+      </c>
+      <c r="M20" s="2">
+        <v>203</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
